--- a/Overall Stats/Pineview/Pineview Report.xlsx
+++ b/Overall Stats/Pineview/Pineview Report.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Pineview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Fishing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9420E1F4-FB21-4248-B4DB-252D6D96CA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63BAFF7-35DC-407D-B86D-B9B17C19C8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
     <sheet name="2019" sheetId="3" r:id="rId2"/>
     <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -290,13 +290,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>total</a:t>
+              <a:t>total species caught</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> species caught</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -380,20 +375,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Muskie</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Perch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -489,6 +470,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Muskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Overall Stats'!$A$3:$B$3</c:f>
@@ -506,7 +501,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4697-4E69-B7D8-1C38C2349C12}"/>
+              <c16:uniqueId val="{00000000-C36C-4072-994E-EB132682536C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -521,17 +516,18 @@
         <c:gapWidth val="84"/>
         <c:gapDepth val="53"/>
         <c:shape val="box"/>
-        <c:axId val="2088919808"/>
-        <c:axId val="2098780048"/>
+        <c:axId val="775523024"/>
+        <c:axId val="780561568"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2088919808"/>
+        <c:axId val="775523024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -561,7 +557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098780048"/>
+        <c:crossAx val="780561568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098780048"/>
+        <c:axId val="780561568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088919808"/>
+        <c:crossAx val="775523024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -678,13 +674,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PERCENT</a:t>
+              <a:t>PERCENT SPECIES CAUGHT</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> SPECIES CAUGHT</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -770,20 +761,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Muskie</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Perch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -826,11 +803,6 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-90FD-434D-80E2-18A8E623E33D}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -874,12 +846,21 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-93B2-4C69-80DC-0A00A6EE2584}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Muskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Overall Stats'!$A$6:$B$6</c:f>
@@ -897,7 +878,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-07F0-46FB-9C4A-CF43CA3E08B4}"/>
+              <c16:uniqueId val="{00000000-7B45-4AF1-B1A5-B661A9A02171}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -933,7 +914,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
@@ -2133,20 +2114,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971309DA-F170-49D7-A37E-0C335AABB868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA77CD2-B6D9-4C8A-BB13-4C0F5F97D038}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,23 +2147,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E088A26-009F-423D-A918-026EA84337A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B2E3ED-B23B-4DAE-85E2-45B75D8C4DDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101145C2-0D85-474B-8D0D-E5BD092738D9}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2793,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBCDF1-163D-4F6D-B4BA-03D88A17BFF2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Overall Stats/Pineview/Pineview Report.xlsx
+++ b/Overall Stats/Pineview/Pineview Report.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Fishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Pineview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63BAFF7-35DC-407D-B86D-B9B17C19C8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19A62B9-0E18-4E33-B2EF-9AC5F9615567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
     <sheet name="2019" sheetId="3" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
+    <sheet name="2020" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -94,12 +89,60 @@
   <si>
     <t>Muskie</t>
   </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Pineview</t>
+  </si>
+  <si>
+    <t>1 Crappie</t>
+  </si>
+  <si>
+    <t>1 Carp 16 Crappie 1 Perch</t>
+  </si>
+  <si>
+    <t>1 Carp 2 Crappie</t>
+  </si>
+  <si>
+    <t>1 Bluegill 30 Crappie 29 Perch</t>
+  </si>
+  <si>
+    <t>1 BH. Catfish 105 Crappie 1 Perch</t>
+  </si>
+  <si>
+    <t>19 BH. Catfish 23 Crappie 83 Perch</t>
+  </si>
+  <si>
+    <t>9 Perch</t>
+  </si>
+  <si>
+    <t>BH. Catfish</t>
+  </si>
+  <si>
+    <t>Carp</t>
+  </si>
+  <si>
+    <t>Crappie</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Bluegill</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +196,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -168,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -194,11 +244,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,9 +292,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -240,6 +305,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,13 +556,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Bluegill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BH. Catfish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crappie</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Muskie</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Perch</c:v>
                 </c:pt>
               </c:strCache>
@@ -486,15 +582,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3:$B$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,6 +911,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2B90-44DA-888F-DEDCDA10D4CC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -846,16 +959,205 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2B90-44DA-888F-DEDCDA10D4CC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$F$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Bluegill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BH. Catfish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crappie</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Muskie</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Perch</c:v>
                 </c:pt>
               </c:strCache>
@@ -863,15 +1165,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6:$B$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>0.303951367781155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.666666666666657</c:v>
+                  <c:v>6.0790273556231007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60790273556231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.799392097264445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60790273556231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.601823708206688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,12 +2828,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2560,12 +2874,12 @@
         <f>SUM(C3:C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2613,7 +2927,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E2" sqref="E2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2630,14 +2944,14 @@
         <v>17</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2646,16 +2960,16 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2673,7 +2987,7 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -2697,7 +3011,7 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
@@ -2709,12 +3023,12 @@
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2771,111 +3085,495 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBCDF1-163D-4F6D-B4BA-03D88A17BFF2}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC9C289-FBDC-47E4-A007-8B5D003DA7FD}">
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>177</v>
+      </c>
+      <c r="L4" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="14">
+        <f>SUM(H4/$F$11*100)</f>
+        <v>0.30959752321981426</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" ref="I7:L7" si="0">SUM(I4/$F$11*100)</f>
+        <v>6.1919504643962853</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.61919504643962853</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>54.798761609907118</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="0"/>
+        <v>38.080495356037154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>107</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>125</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9">
+        <f>SUM(F4:F10)</f>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="18">
+        <f>AVERAGE(F4:F10)</f>
+        <v>46.142857142857146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBCDF1-163D-4F6D-B4BA-03D88A17BFF2}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
+        <f>SUM('2020'!H4)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <f>SUM('2020'!I4)</f>
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUM('2020'!J4)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <f>SUM('2020'!K4)</f>
+        <v>177</v>
+      </c>
+      <c r="E3" s="7">
         <f>SUM('2019'!E4)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <f>SUM('2018'!E4)</f>
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="F3" s="7">
+        <f>SUM('2018'!E4+'2020'!L4)</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <f>SUM(A3/$B8*100)</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="B6" s="15">
-        <f>SUM(B3/$B8*100)</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <f>SUM(A3/$B$8*100)</f>
+        <v>0.303951367781155</v>
+      </c>
+      <c r="B6" s="14">
+        <f t="shared" ref="B6:F6" si="0">SUM(B3/$B$8*100)</f>
+        <v>6.0790273556231007</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.60790273556231</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>53.799392097264445</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.60790273556231</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>38.601823708206688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2018'!C5+'2019'!C6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM('2018'!C5+'2019'!C6+'2020'!F11)</f>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2018'!C6+'2019'!C7)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM('2018'!C6+'2019'!C7+'2020'!F12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="22">
         <f>SUM(B8/B9)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
+      <c r="B11" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Overall Stats/Pineview/Pineview Report.xlsx
+++ b/Overall Stats/Pineview/Pineview Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Pineview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19A62B9-0E18-4E33-B2EF-9AC5F9615567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7F803-8492-483E-A4C0-9CE720C7D077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
+    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -300,15 +300,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,6 +315,15 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,6 +1007,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0678-463C-AEF9-1404ECA3082D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1050,6 +1055,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0678-463C-AEF9-1404ECA3082D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1093,6 +1103,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0678-463C-AEF9-1404ECA3082D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1136,6 +1151,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0678-463C-AEF9-1404ECA3082D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2828,12 +2848,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2874,12 +2894,12 @@
         <f>SUM(C3:C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2960,12 +2980,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3023,12 +3043,12 @@
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -3088,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC9C289-FBDC-47E4-A007-8B5D003DA7FD}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -3121,25 +3141,25 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3170,7 +3190,7 @@
       <c r="K3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3222,13 +3242,13 @@
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3258,7 +3278,7 @@
       <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3382,7 +3402,7 @@
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <f>AVERAGE(F4:F10)</f>
         <v>46.142857142857146</v>
       </c>
@@ -3391,7 +3411,7 @@
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3424,14 +3444,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3480,14 +3500,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3557,7 +3577,7 @@
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <f>SUM(B8/B9)</f>
         <v>32.9</v>
       </c>
@@ -3566,7 +3586,7 @@
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Overall Stats/Pineview/Pineview Report.xlsx
+++ b/Overall Stats/Pineview/Pineview Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Pineview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7F803-8492-483E-A4C0-9CE720C7D077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE43AEB-CABE-4D24-9D31-2F17B2A78E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -3108,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC9C289-FBDC-47E4-A007-8B5D003DA7FD}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -3429,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBCDF1-163D-4F6D-B4BA-03D88A17BFF2}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/Pineview/Pineview Report.xlsx
+++ b/Overall Stats/Pineview/Pineview Report.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Pineview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE43AEB-CABE-4D24-9D31-2F17B2A78E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF4F39-DDAB-4456-8056-3B23956D3846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
     <sheet name="2019" sheetId="3" r:id="rId2"/>
     <sheet name="2020" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId4"/>
+    <sheet name="2021" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="44">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -136,6 +144,30 @@
   </si>
   <si>
     <t>Bluegill</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June </t>
+  </si>
+  <si>
+    <t>8 Crappie 5 Perch</t>
+  </si>
+  <si>
+    <t>1 BH. Catfish 14 Crappie 45 Perch</t>
+  </si>
+  <si>
+    <t>5 Crappie 88 Perch</t>
+  </si>
+  <si>
+    <t>7 Crappie 44 Perch</t>
+  </si>
+  <si>
+    <t>272 Crappie</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Pineview</t>
   </si>
 </sst>
 </file>
@@ -266,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +348,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,6 +358,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,13 +637,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,22 +1231,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.303951367781155</c:v>
+                  <c:v>0.12224938875305623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0790273556231007</c:v>
+                  <c:v>2.4449877750611249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60790273556231</c:v>
+                  <c:v>0.24449877750611246</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.799392097264445</c:v>
+                  <c:v>59.046454767726161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60790273556231</c:v>
+                  <c:v>0.24449877750611246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.601823708206688</c:v>
+                  <c:v>37.897310513447437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,12 +2889,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2894,12 +2935,12 @@
         <f>SUM(C3:C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2980,12 +3021,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3043,12 +3084,12 @@
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -3108,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC9C289-FBDC-47E4-A007-8B5D003DA7FD}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,25 +3182,25 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3242,13 +3283,13 @@
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3426,10 +3467,236 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358DDFB2-6AE9-497D-90AE-3D9481702A38}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7">
+        <v>306</v>
+      </c>
+      <c r="H4" s="7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
+        <v>93</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="14">
+        <f>SUM(G4/$E$9*100)</f>
+        <v>62.576687116564422</v>
+      </c>
+      <c r="H7" s="14">
+        <f>SUM(H4/$E$9*100)</f>
+        <v>37.423312883435585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>272</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9">
+        <f>SUM(E4:E8)</f>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15">
+        <f>AVERAGE(E4:E8)</f>
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBCDF1-163D-4F6D-B4BA-03D88A17BFF2}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3444,14 +3711,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3487,27 +3754,27 @@
         <v>2</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM('2020'!K4)</f>
-        <v>177</v>
+        <f>SUM('2020'!K4+'2021'!G4)</f>
+        <v>483</v>
       </c>
       <c r="E3" s="7">
         <f>SUM('2019'!E4)</f>
         <v>2</v>
       </c>
       <c r="F3" s="7">
-        <f>SUM('2018'!E4+'2020'!L4)</f>
-        <v>127</v>
+        <f>SUM('2018'!E4+'2020'!L4+'2021'!H4)</f>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3532,27 +3799,27 @@
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f>SUM(A3/$B$8*100)</f>
-        <v>0.303951367781155</v>
+        <v>0.12224938875305623</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" ref="B6:F6" si="0">SUM(B3/$B$8*100)</f>
-        <v>6.0790273556231007</v>
+        <v>2.4449877750611249</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>0.60790273556231</v>
+        <v>0.24449877750611246</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="0"/>
-        <v>53.799392097264445</v>
+        <v>59.046454767726161</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>0.60790273556231</v>
+        <v>0.24449877750611246</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>38.601823708206688</v>
+        <v>37.897310513447437</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3560,8 +3827,8 @@
         <v>9</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2018'!C5+'2019'!C6+'2020'!F11)</f>
-        <v>329</v>
+        <f>SUM('2018'!C5+'2019'!C6+'2020'!F11+'2021'!E9)</f>
+        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3569,8 +3836,8 @@
         <v>10</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2018'!C6+'2019'!C7+'2020'!F12)</f>
-        <v>10</v>
+        <f>SUM('2018'!C6+'2019'!C7+'2020'!F12+'2021'!E10)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3579,7 +3846,7 @@
       </c>
       <c r="B10" s="19">
         <f>SUM(B8/B9)</f>
-        <v>32.9</v>
+        <v>54.533333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Pineview/Pineview Report.xlsx
+++ b/Overall Stats/Pineview/Pineview Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Pineview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDF4F39-DDAB-4456-8056-3B23956D3846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B05D54-76C5-4839-BAB0-7110FA42F761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0B76EBD0-7239-4FD1-83D5-6D5924817D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -351,6 +351,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,12 +364,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,7 +643,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>310</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,7 +1246,7 @@
                   <c:v>0.24449877750611246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.897310513447437</c:v>
+                  <c:v>37.775061124694375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2889,12 +2889,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2935,12 +2935,12 @@
         <f>SUM(C3:C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -3021,12 +3021,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3084,12 +3084,12 @@
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -3182,25 +3182,25 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3283,13 +3283,13 @@
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3470,7 +3470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358DDFB2-6AE9-497D-90AE-3D9481702A38}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3482,7 +3482,7 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -3496,30 +3496,30 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -3532,12 +3532,15 @@
       <c r="D3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3557,10 +3560,13 @@
         <v>38</v>
       </c>
       <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
         <v>306</v>
       </c>
-      <c r="H4" s="7">
-        <v>183</v>
+      <c r="I4" s="7">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3578,13 +3584,13 @@
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3602,9 +3608,12 @@
         <v>40</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3625,11 +3634,15 @@
       </c>
       <c r="G7" s="14">
         <f>SUM(G4/$E$9*100)</f>
+        <v>0.20449897750511251</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" ref="H7:I7" si="0">SUM(H4/$E$9*100)</f>
         <v>62.576687116564422</v>
       </c>
-      <c r="H7" s="14">
-        <f>SUM(H4/$E$9*100)</f>
-        <v>37.423312883435585</v>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>37.218813905930467</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3696,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FBCDF1-163D-4F6D-B4BA-03D88A17BFF2}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3711,14 +3724,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3754,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM('2020'!K4+'2021'!G4)</f>
+        <f>SUM('2020'!K4+'2021'!H4)</f>
         <v>483</v>
       </c>
       <c r="E3" s="7">
@@ -3762,19 +3775,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="7">
-        <f>SUM('2018'!E4+'2020'!L4+'2021'!H4)</f>
-        <v>310</v>
+        <f>SUM('2018'!E4+'2020'!L4+'2021'!I4)</f>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3819,7 +3832,7 @@
       </c>
       <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>37.897310513447437</v>
+        <v>37.775061124694375</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
